--- a/plantilla recibís3.xlsx
+++ b/plantilla recibís3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D125BAF9-E59D-4ECC-9CA1-685D1A9EF3E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4018546D-F889-431E-A374-C428F1E2EE84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{E9D8DCDE-63D1-4129-A233-D881745C52BF}"/>
   </bookViews>
@@ -417,7 +417,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -657,30 +657,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -745,13 +721,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -827,7 +840,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -839,7 +852,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -848,17 +861,129 @@
     <xf numFmtId="2" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -872,171 +997,26 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1481,8 +1461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4877F8E-1F6D-418F-B999-C4A9577F48A0}">
   <dimension ref="A1:AC54"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="91" zoomScaleNormal="100" zoomScalePageLayoutView="91" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:J40"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScale="91" zoomScaleNormal="100" zoomScalePageLayoutView="91" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2632,43 +2612,43 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
     </row>
     <row r="2" spans="1:29" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65"/>
     </row>
     <row r="3" spans="1:29" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="69"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="67"/>
     </row>
     <row r="4" spans="1:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="72"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="70"/>
     </row>
     <row r="5" spans="1:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
@@ -2692,25 +2672,25 @@
       <c r="Q5" s="30"/>
     </row>
     <row r="6" spans="1:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="73"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="73"/>
-      <c r="P6" s="73"/>
-      <c r="Q6" s="73"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
     </row>
     <row r="7" spans="1:29" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
@@ -2732,46 +2712,46 @@
       <c r="Q7" s="9"/>
     </row>
     <row r="8" spans="1:29" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="58"/>
-      <c r="Q8" s="59"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="76"/>
+      <c r="O8" s="76"/>
+      <c r="P8" s="76"/>
+      <c r="Q8" s="77"/>
     </row>
     <row r="9" spans="1:29" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="81"/>
+      <c r="N9" s="81"/>
+      <c r="O9" s="81"/>
+      <c r="P9" s="81"/>
+      <c r="Q9" s="81"/>
     </row>
     <row r="10" spans="1:29" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
@@ -2826,54 +2806,54 @@
       <c r="AC11" s="6"/>
     </row>
     <row r="12" spans="1:29" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="80" t="s">
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="80"/>
-      <c r="H12" s="77" t="s">
+      <c r="G12" s="60"/>
+      <c r="H12" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="78"/>
-      <c r="J12" s="78"/>
-      <c r="K12" s="78"/>
-      <c r="L12" s="78"/>
-      <c r="M12" s="79"/>
-      <c r="N12" s="77" t="s">
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="O12" s="78"/>
-      <c r="P12" s="78"/>
-      <c r="Q12" s="79"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="58"/>
+      <c r="Q12" s="59"/>
     </row>
     <row r="13" spans="1:29" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="81" t="s">
+      <c r="A13" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="81"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="83" t="s">
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="I13" s="83"/>
-      <c r="J13" s="83"/>
-      <c r="K13" s="83"/>
-      <c r="L13" s="83"/>
-      <c r="M13" s="83"/>
-      <c r="N13" s="83"/>
-      <c r="O13" s="83"/>
-      <c r="P13" s="83"/>
-      <c r="Q13" s="83"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="63"/>
+      <c r="Q13" s="63"/>
     </row>
     <row r="14" spans="1:29" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
@@ -2883,15 +2863,15 @@
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="82"/>
-      <c r="M14" s="82"/>
-      <c r="N14" s="82"/>
-      <c r="O14" s="82"/>
-      <c r="P14" s="82"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
       <c r="Q14" s="9"/>
     </row>
     <row r="15" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2916,63 +2896,63 @@
       <c r="Q15" s="9"/>
     </row>
     <row r="16" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="74" t="s">
+      <c r="A16" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="75"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="76"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
       <c r="F16" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="74" t="s">
+      <c r="G16" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="76"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="56"/>
       <c r="K16" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="L16" s="74" t="s">
+      <c r="L16" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="M16" s="75"/>
-      <c r="N16" s="75"/>
-      <c r="O16" s="75"/>
-      <c r="P16" s="76"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="56"/>
       <c r="Q16" s="18" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="46"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="84"/>
       <c r="F17" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="44" t="s">
+      <c r="G17" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="46"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="83"/>
+      <c r="J17" s="84"/>
       <c r="K17" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="L17" s="44" t="s">
+      <c r="L17" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="M17" s="45"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="46"/>
+      <c r="M17" s="83"/>
+      <c r="N17" s="83"/>
+      <c r="O17" s="83"/>
+      <c r="P17" s="84"/>
       <c r="Q17" s="20" t="s">
         <v>44</v>
       </c>
@@ -3094,140 +3074,140 @@
       <c r="Q23" s="9"/>
     </row>
     <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="52" t="s">
+      <c r="A24" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="52"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="50" t="s">
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="43"/>
-      <c r="H24" s="42" t="s">
+      <c r="G24" s="52"/>
+      <c r="H24" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="I24" s="43"/>
-      <c r="J24" s="52" t="s">
+      <c r="I24" s="52"/>
+      <c r="J24" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="42" t="s">
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="N24" s="43"/>
-      <c r="O24" s="42" t="s">
+      <c r="N24" s="52"/>
+      <c r="O24" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="P24" s="43"/>
+      <c r="P24" s="52"/>
       <c r="Q24" s="31" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="40"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
       <c r="J25" s="48"/>
       <c r="K25" s="48"/>
       <c r="L25" s="48"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="41"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="45"/>
       <c r="Q25" s="39"/>
     </row>
     <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="51" t="s">
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="I26" s="51"/>
+      <c r="I26" s="49"/>
       <c r="J26" s="48" t="s">
         <v>45</v>
       </c>
       <c r="K26" s="48"/>
       <c r="L26" s="48"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="40" t="s">
+      <c r="M26" s="44"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="P26" s="41"/>
+      <c r="P26" s="45"/>
       <c r="Q26" s="39" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="51" t="s">
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="I27" s="51"/>
+      <c r="I27" s="49"/>
       <c r="J27" s="48" t="s">
         <v>45</v>
       </c>
       <c r="K27" s="48"/>
       <c r="L27" s="48"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="41"/>
-      <c r="O27" s="40" t="s">
+      <c r="M27" s="44"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="P27" s="41"/>
+      <c r="P27" s="45"/>
       <c r="Q27" s="39" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="40" t="s">
+      <c r="A28" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="51" t="s">
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="I28" s="51"/>
+      <c r="I28" s="49"/>
       <c r="J28" s="48" t="s">
         <v>45</v>
       </c>
       <c r="K28" s="48"/>
       <c r="L28" s="48"/>
-      <c r="M28" s="40"/>
-      <c r="N28" s="41"/>
-      <c r="O28" s="40" t="s">
+      <c r="M28" s="44"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="P28" s="41"/>
+      <c r="P28" s="45"/>
       <c r="Q28" s="39" t="s">
         <v>45</v>
       </c>
@@ -3252,25 +3232,25 @@
       <c r="Q29" s="9"/>
     </row>
     <row r="30" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="100" t="s">
+      <c r="A30" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="100"/>
-      <c r="C30" s="100"/>
-      <c r="D30" s="100"/>
-      <c r="E30" s="100"/>
-      <c r="F30" s="100"/>
-      <c r="G30" s="100"/>
-      <c r="H30" s="100"/>
-      <c r="I30" s="100"/>
-      <c r="J30" s="100"/>
-      <c r="K30" s="100"/>
-      <c r="L30" s="100"/>
-      <c r="M30" s="100"/>
-      <c r="N30" s="100"/>
-      <c r="O30" s="100"/>
-      <c r="P30" s="100"/>
-      <c r="Q30" s="100"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="47"/>
+      <c r="O30" s="47"/>
+      <c r="P30" s="47"/>
+      <c r="Q30" s="47"/>
     </row>
     <row r="31" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="23"/>
@@ -3311,27 +3291,27 @@
       <c r="Q32" s="24"/>
     </row>
     <row r="33" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="87" t="s">
+      <c r="A33" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="87"/>
-      <c r="C33" s="87"/>
-      <c r="D33" s="87"/>
-      <c r="E33" s="87"/>
-      <c r="F33" s="87"/>
-      <c r="G33" s="87"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
       <c r="H33" s="32"/>
       <c r="I33" s="32"/>
-      <c r="J33" s="88" t="s">
+      <c r="J33" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="K33" s="88"/>
-      <c r="L33" s="88"/>
-      <c r="M33" s="88"/>
-      <c r="N33" s="88"/>
-      <c r="O33" s="88"/>
-      <c r="P33" s="88"/>
-      <c r="Q33" s="88"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="41"/>
+      <c r="O33" s="41"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
     </row>
     <row r="34" spans="1:17" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="24"/>
@@ -3353,248 +3333,248 @@
       <c r="Q34" s="24"/>
     </row>
     <row r="35" spans="1:17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="63" t="s">
+      <c r="A35" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="63"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="63"/>
-      <c r="G35" s="63"/>
-      <c r="H35" s="63"/>
-      <c r="I35" s="63"/>
-      <c r="J35" s="63"/>
-      <c r="K35" s="97" t="s">
+      <c r="B35" s="88"/>
+      <c r="C35" s="88"/>
+      <c r="D35" s="88"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="88"/>
+      <c r="G35" s="89"/>
+      <c r="H35" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="L35" s="98"/>
-      <c r="M35" s="99"/>
-      <c r="N35" s="60" t="s">
+      <c r="I35" s="88"/>
+      <c r="J35" s="88"/>
+      <c r="K35" s="88"/>
+      <c r="L35" s="88"/>
+      <c r="M35" s="89"/>
+      <c r="N35" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="O35" s="60"/>
-      <c r="P35" s="60"/>
-      <c r="Q35" s="60"/>
+      <c r="O35" s="78"/>
+      <c r="P35" s="78"/>
+      <c r="Q35" s="78"/>
     </row>
     <row r="36" spans="1:17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="64"/>
-      <c r="B36" s="64"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="64"/>
-      <c r="H36" s="64"/>
-      <c r="I36" s="64"/>
-      <c r="J36" s="64"/>
-      <c r="K36" s="101"/>
-      <c r="L36" s="102"/>
-      <c r="M36" s="103"/>
-      <c r="N36" s="61" t="s">
+      <c r="A36" s="90"/>
+      <c r="B36" s="91"/>
+      <c r="C36" s="91"/>
+      <c r="D36" s="91"/>
+      <c r="E36" s="91"/>
+      <c r="F36" s="91"/>
+      <c r="G36" s="92"/>
+      <c r="H36" s="90"/>
+      <c r="I36" s="91"/>
+      <c r="J36" s="91"/>
+      <c r="K36" s="91"/>
+      <c r="L36" s="91"/>
+      <c r="M36" s="92"/>
+      <c r="N36" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="O36" s="61"/>
-      <c r="P36" s="61"/>
-      <c r="Q36" s="61"/>
+      <c r="O36" s="79"/>
+      <c r="P36" s="79"/>
+      <c r="Q36" s="79"/>
     </row>
     <row r="37" spans="1:17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="64"/>
-      <c r="B37" s="64"/>
-      <c r="C37" s="64"/>
-      <c r="D37" s="64"/>
-      <c r="E37" s="64"/>
-      <c r="F37" s="64"/>
-      <c r="G37" s="64"/>
-      <c r="H37" s="64"/>
-      <c r="I37" s="64"/>
-      <c r="J37" s="64"/>
-      <c r="K37" s="84"/>
-      <c r="L37" s="85"/>
-      <c r="M37" s="86"/>
-      <c r="N37" s="62"/>
-      <c r="O37" s="62"/>
-      <c r="P37" s="62"/>
-      <c r="Q37" s="62"/>
+      <c r="A37" s="90"/>
+      <c r="B37" s="91"/>
+      <c r="C37" s="91"/>
+      <c r="D37" s="91"/>
+      <c r="E37" s="91"/>
+      <c r="F37" s="91"/>
+      <c r="G37" s="92"/>
+      <c r="H37" s="90"/>
+      <c r="I37" s="91"/>
+      <c r="J37" s="91"/>
+      <c r="K37" s="91"/>
+      <c r="L37" s="91"/>
+      <c r="M37" s="92"/>
+      <c r="N37" s="80"/>
+      <c r="O37" s="80"/>
+      <c r="P37" s="80"/>
+      <c r="Q37" s="80"/>
     </row>
     <row r="38" spans="1:17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="64"/>
-      <c r="B38" s="64"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="64"/>
-      <c r="G38" s="64"/>
-      <c r="H38" s="64"/>
-      <c r="I38" s="64"/>
-      <c r="J38" s="64"/>
-      <c r="K38" s="90"/>
+      <c r="A38" s="90"/>
+      <c r="B38" s="91"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="91"/>
+      <c r="E38" s="91"/>
+      <c r="F38" s="91"/>
+      <c r="G38" s="92"/>
+      <c r="H38" s="90"/>
+      <c r="I38" s="91"/>
+      <c r="J38" s="91"/>
+      <c r="K38" s="91"/>
       <c r="L38" s="91"/>
       <c r="M38" s="92"/>
-      <c r="N38" s="62"/>
-      <c r="O38" s="62"/>
-      <c r="P38" s="62"/>
-      <c r="Q38" s="62"/>
+      <c r="N38" s="80"/>
+      <c r="O38" s="80"/>
+      <c r="P38" s="80"/>
+      <c r="Q38" s="80"/>
     </row>
     <row r="39" spans="1:17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="64"/>
-      <c r="B39" s="64"/>
-      <c r="C39" s="64"/>
-      <c r="D39" s="64"/>
-      <c r="E39" s="64"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="64"/>
-      <c r="H39" s="64"/>
-      <c r="I39" s="64"/>
-      <c r="J39" s="64"/>
-      <c r="K39" s="84"/>
-      <c r="L39" s="85"/>
-      <c r="M39" s="86"/>
-      <c r="N39" s="62"/>
-      <c r="O39" s="62"/>
-      <c r="P39" s="62"/>
-      <c r="Q39" s="62"/>
+      <c r="A39" s="90"/>
+      <c r="B39" s="91"/>
+      <c r="C39" s="91"/>
+      <c r="D39" s="91"/>
+      <c r="E39" s="91"/>
+      <c r="F39" s="91"/>
+      <c r="G39" s="92"/>
+      <c r="H39" s="90"/>
+      <c r="I39" s="91"/>
+      <c r="J39" s="91"/>
+      <c r="K39" s="91"/>
+      <c r="L39" s="91"/>
+      <c r="M39" s="92"/>
+      <c r="N39" s="80"/>
+      <c r="O39" s="80"/>
+      <c r="P39" s="80"/>
+      <c r="Q39" s="80"/>
     </row>
     <row r="40" spans="1:17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="64"/>
-      <c r="B40" s="64"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="64"/>
-      <c r="G40" s="64"/>
-      <c r="H40" s="64"/>
-      <c r="I40" s="64"/>
-      <c r="J40" s="64"/>
-      <c r="K40" s="94"/>
-      <c r="L40" s="95"/>
-      <c r="M40" s="96"/>
-      <c r="N40" s="62"/>
-      <c r="O40" s="62"/>
-      <c r="P40" s="62"/>
-      <c r="Q40" s="62"/>
+      <c r="A40" s="90"/>
+      <c r="B40" s="91"/>
+      <c r="C40" s="91"/>
+      <c r="D40" s="91"/>
+      <c r="E40" s="91"/>
+      <c r="F40" s="91"/>
+      <c r="G40" s="92"/>
+      <c r="H40" s="90"/>
+      <c r="I40" s="91"/>
+      <c r="J40" s="91"/>
+      <c r="K40" s="91"/>
+      <c r="L40" s="91"/>
+      <c r="M40" s="92"/>
+      <c r="N40" s="80"/>
+      <c r="O40" s="80"/>
+      <c r="P40" s="80"/>
+      <c r="Q40" s="80"/>
     </row>
     <row r="41" spans="1:17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="93" t="s">
+      <c r="A41" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="93"/>
-      <c r="C41" s="93"/>
-      <c r="D41" s="93"/>
-      <c r="E41" s="93"/>
-      <c r="F41" s="93"/>
-      <c r="G41" s="93"/>
-      <c r="H41" s="93"/>
-      <c r="I41" s="93"/>
-      <c r="J41" s="93"/>
-      <c r="K41" s="93"/>
-      <c r="L41" s="93"/>
-      <c r="M41" s="93"/>
-      <c r="N41" s="61">
+      <c r="B41" s="46"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="46"/>
+      <c r="M41" s="46"/>
+      <c r="N41" s="79">
         <f>SUM(N36:N40)</f>
         <v>0</v>
       </c>
-      <c r="O41" s="61"/>
-      <c r="P41" s="61"/>
-      <c r="Q41" s="61"/>
+      <c r="O41" s="79"/>
+      <c r="P41" s="79"/>
+      <c r="Q41" s="79"/>
     </row>
     <row r="42" spans="1:17" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="47" t="s">
+      <c r="A42" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="47"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="47"/>
-      <c r="I42" s="47"/>
-      <c r="J42" s="47"/>
-      <c r="K42" s="47"/>
-      <c r="L42" s="47"/>
-      <c r="M42" s="47"/>
-      <c r="N42" s="47"/>
-      <c r="O42" s="47"/>
-      <c r="P42" s="47"/>
-      <c r="Q42" s="47"/>
+      <c r="B42" s="85"/>
+      <c r="C42" s="85"/>
+      <c r="D42" s="85"/>
+      <c r="E42" s="85"/>
+      <c r="F42" s="85"/>
+      <c r="G42" s="85"/>
+      <c r="H42" s="85"/>
+      <c r="I42" s="85"/>
+      <c r="J42" s="85"/>
+      <c r="K42" s="85"/>
+      <c r="L42" s="85"/>
+      <c r="M42" s="85"/>
+      <c r="N42" s="85"/>
+      <c r="O42" s="85"/>
+      <c r="P42" s="85"/>
+      <c r="Q42" s="85"/>
     </row>
     <row r="43" spans="1:17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="53" t="s">
+      <c r="A43" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="53"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="53"/>
-      <c r="K43" s="53"/>
-      <c r="L43" s="53"/>
-      <c r="M43" s="53"/>
-      <c r="N43" s="53"/>
-      <c r="O43" s="53"/>
-      <c r="P43" s="53"/>
-      <c r="Q43" s="53"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="42"/>
+      <c r="L43" s="42"/>
+      <c r="M43" s="42"/>
+      <c r="N43" s="42"/>
+      <c r="O43" s="42"/>
+      <c r="P43" s="42"/>
+      <c r="Q43" s="42"/>
     </row>
     <row r="44" spans="1:17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="53"/>
-      <c r="B44" s="53"/>
-      <c r="C44" s="53"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="53"/>
-      <c r="I44" s="53"/>
-      <c r="J44" s="53"/>
-      <c r="K44" s="53"/>
-      <c r="L44" s="53"/>
-      <c r="M44" s="53"/>
-      <c r="N44" s="53"/>
-      <c r="O44" s="53"/>
-      <c r="P44" s="53"/>
-      <c r="Q44" s="53"/>
+      <c r="A44" s="42"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="42"/>
+      <c r="L44" s="42"/>
+      <c r="M44" s="42"/>
+      <c r="N44" s="42"/>
+      <c r="O44" s="42"/>
+      <c r="P44" s="42"/>
+      <c r="Q44" s="42"/>
     </row>
     <row r="45" spans="1:17" customFormat="1" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="27"/>
-      <c r="B45" s="53"/>
-      <c r="C45" s="53"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="53"/>
-      <c r="I45" s="53"/>
-      <c r="J45" s="53"/>
-      <c r="K45" s="53"/>
-      <c r="L45" s="53"/>
-      <c r="M45" s="53"/>
-      <c r="N45" s="53"/>
-      <c r="O45" s="53"/>
-      <c r="P45" s="53"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="42"/>
+      <c r="M45" s="42"/>
+      <c r="N45" s="42"/>
+      <c r="O45" s="42"/>
+      <c r="P45" s="42"/>
       <c r="Q45" s="27"/>
     </row>
     <row r="46" spans="1:17" customFormat="1" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
-      <c r="B46" s="53"/>
-      <c r="C46" s="53"/>
-      <c r="D46" s="53"/>
-      <c r="E46" s="53"/>
-      <c r="F46" s="53"/>
-      <c r="G46" s="53"/>
-      <c r="H46" s="53"/>
-      <c r="I46" s="53"/>
-      <c r="J46" s="53"/>
-      <c r="K46" s="53"/>
-      <c r="L46" s="53"/>
-      <c r="M46" s="53"/>
-      <c r="N46" s="53"/>
-      <c r="O46" s="53"/>
-      <c r="P46" s="53"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="42"/>
+      <c r="L46" s="42"/>
+      <c r="M46" s="42"/>
+      <c r="N46" s="42"/>
+      <c r="O46" s="42"/>
+      <c r="P46" s="42"/>
       <c r="Q46" s="27"/>
     </row>
     <row r="47" spans="1:17" customFormat="1" ht="1.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -3617,25 +3597,25 @@
       <c r="Q47" s="27"/>
     </row>
     <row r="48" spans="1:17" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="54" t="s">
+      <c r="A48" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="55"/>
-      <c r="C48" s="55"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="55"/>
-      <c r="F48" s="55"/>
-      <c r="G48" s="55"/>
-      <c r="H48" s="55"/>
-      <c r="I48" s="55"/>
-      <c r="J48" s="55"/>
-      <c r="K48" s="55"/>
-      <c r="L48" s="55"/>
-      <c r="M48" s="55"/>
-      <c r="N48" s="55"/>
-      <c r="O48" s="55"/>
-      <c r="P48" s="55"/>
-      <c r="Q48" s="56"/>
+      <c r="B48" s="73"/>
+      <c r="C48" s="73"/>
+      <c r="D48" s="73"/>
+      <c r="E48" s="73"/>
+      <c r="F48" s="73"/>
+      <c r="G48" s="73"/>
+      <c r="H48" s="73"/>
+      <c r="I48" s="73"/>
+      <c r="J48" s="73"/>
+      <c r="K48" s="73"/>
+      <c r="L48" s="73"/>
+      <c r="M48" s="73"/>
+      <c r="N48" s="73"/>
+      <c r="O48" s="73"/>
+      <c r="P48" s="73"/>
+      <c r="Q48" s="74"/>
     </row>
     <row r="49" spans="1:17" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
@@ -3661,14 +3641,14 @@
       <c r="Q49" s="1"/>
     </row>
     <row r="50" spans="1:17" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="89" t="s">
+      <c r="A50" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="B50" s="89"/>
-      <c r="C50" s="89"/>
-      <c r="D50" s="89"/>
-      <c r="E50" s="89"/>
-      <c r="F50" s="89"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
       <c r="G50" s="26"/>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
@@ -3766,63 +3746,20 @@
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="J33:Q33"/>
-    <mergeCell ref="B45:P46"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="A41:M41"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="A30:Q30"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="H14:P14"/>
-    <mergeCell ref="H13:Q13"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="A4:Q4"/>
-    <mergeCell ref="A6:Q6"/>
-    <mergeCell ref="A43:Q44"/>
-    <mergeCell ref="A48:Q48"/>
-    <mergeCell ref="A8:Q8"/>
-    <mergeCell ref="N35:Q35"/>
-    <mergeCell ref="N36:Q36"/>
-    <mergeCell ref="N37:Q37"/>
-    <mergeCell ref="N38:Q38"/>
-    <mergeCell ref="N39:Q39"/>
-    <mergeCell ref="N40:Q40"/>
-    <mergeCell ref="N41:Q41"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="A9:Q9"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="H39:M39"/>
+    <mergeCell ref="H40:M40"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A40:G40"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="O24:P24"/>
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="L17:P17"/>
@@ -3839,11 +3776,54 @@
     <mergeCell ref="A24:E24"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="A26:E26"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="A43:Q44"/>
+    <mergeCell ref="A48:Q48"/>
+    <mergeCell ref="A8:Q8"/>
+    <mergeCell ref="N35:Q35"/>
+    <mergeCell ref="N36:Q36"/>
+    <mergeCell ref="N37:Q37"/>
+    <mergeCell ref="N38:Q38"/>
+    <mergeCell ref="N39:Q39"/>
+    <mergeCell ref="N40:Q40"/>
+    <mergeCell ref="N41:Q41"/>
+    <mergeCell ref="A9:Q9"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="A6:Q6"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="H14:P14"/>
+    <mergeCell ref="H13:Q13"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="J33:Q33"/>
+    <mergeCell ref="B45:P46"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="A41:M41"/>
+    <mergeCell ref="A30:Q30"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -3852,20 +3832,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="2b0bd853-7088-4c19-b00d-053be169d2a6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="2b0bd853-7088-4c19-b00d-053be169d2a6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4102,6 +4082,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E7A361B-8181-4793-B122-3274A90D1579}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E85C31F2-6F54-4105-8496-2F3931A2EC0B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -4114,14 +4102,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E7A361B-8181-4793-B122-3274A90D1579}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/plantilla recibís3.xlsx
+++ b/plantilla recibís3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4018546D-F889-431E-A374-C428F1E2EE84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E925FDB4-8DD3-4692-91BF-BEB31769C651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{E9D8DCDE-63D1-4129-A233-D881745C52BF}"/>
   </bookViews>
@@ -263,7 +263,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -394,6 +394,11 @@
     <font>
       <sz val="8.5"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Gill Sans MT"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -764,7 +769,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -861,162 +866,174 @@
     <xf numFmtId="2" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1461,8 +1478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4877F8E-1F6D-418F-B999-C4A9577F48A0}">
   <dimension ref="A1:AC54"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScale="91" zoomScaleNormal="100" zoomScalePageLayoutView="91" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A28" zoomScale="91" zoomScaleNormal="100" zoomScalePageLayoutView="91" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2612,43 +2629,43 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-    </row>
-    <row r="2" spans="1:29" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M2" s="3"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+    </row>
+    <row r="2" spans="1:29" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M2" s="93"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
     </row>
     <row r="3" spans="1:29" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="67"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="73"/>
     </row>
     <row r="4" spans="1:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="70"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="76"/>
     </row>
     <row r="5" spans="1:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
@@ -2672,25 +2689,25 @@
       <c r="Q5" s="30"/>
     </row>
     <row r="6" spans="1:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="77"/>
+      <c r="Q6" s="77"/>
     </row>
     <row r="7" spans="1:29" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
@@ -2712,46 +2729,46 @@
       <c r="Q7" s="9"/>
     </row>
     <row r="8" spans="1:29" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="76"/>
-      <c r="O8" s="76"/>
-      <c r="P8" s="76"/>
-      <c r="Q8" s="77"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="64"/>
+      <c r="P8" s="64"/>
+      <c r="Q8" s="65"/>
     </row>
     <row r="9" spans="1:29" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="81"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="81"/>
-      <c r="O9" s="81"/>
-      <c r="P9" s="81"/>
-      <c r="Q9" s="81"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="69"/>
     </row>
     <row r="10" spans="1:29" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
@@ -2806,54 +2823,54 @@
       <c r="AC11" s="6"/>
     </row>
     <row r="12" spans="1:29" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="60" t="s">
+      <c r="B12" s="82"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="60"/>
-      <c r="H12" s="57" t="s">
+      <c r="G12" s="84"/>
+      <c r="H12" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="57" t="s">
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="82"/>
+      <c r="M12" s="83"/>
+      <c r="N12" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="O12" s="58"/>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="59"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="82"/>
+      <c r="Q12" s="83"/>
     </row>
     <row r="13" spans="1:29" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="61" t="s">
+      <c r="A13" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="63" t="s">
+      <c r="B13" s="85"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="63"/>
-      <c r="P13" s="63"/>
-      <c r="Q13" s="63"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="87"/>
+      <c r="N13" s="87"/>
+      <c r="O13" s="87"/>
+      <c r="P13" s="87"/>
+      <c r="Q13" s="87"/>
     </row>
     <row r="14" spans="1:29" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
@@ -2863,15 +2880,15 @@
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="62"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="86"/>
+      <c r="N14" s="86"/>
+      <c r="O14" s="86"/>
+      <c r="P14" s="86"/>
       <c r="Q14" s="9"/>
     </row>
     <row r="15" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2896,63 +2913,63 @@
       <c r="Q15" s="9"/>
     </row>
     <row r="16" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="80"/>
       <c r="F16" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="54" t="s">
+      <c r="G16" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="56"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="80"/>
       <c r="K16" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="L16" s="54" t="s">
+      <c r="L16" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="56"/>
+      <c r="M16" s="79"/>
+      <c r="N16" s="79"/>
+      <c r="O16" s="79"/>
+      <c r="P16" s="80"/>
       <c r="Q16" s="18" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="82" t="s">
+      <c r="A17" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="83"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="84"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="52"/>
       <c r="F17" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="82" t="s">
+      <c r="G17" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="83"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="84"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="52"/>
       <c r="K17" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="L17" s="82" t="s">
+      <c r="L17" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="M17" s="83"/>
-      <c r="N17" s="83"/>
-      <c r="O17" s="83"/>
-      <c r="P17" s="84"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="52"/>
       <c r="Q17" s="20" t="s">
         <v>44</v>
       </c>
@@ -3074,140 +3091,140 @@
       <c r="Q23" s="9"/>
     </row>
     <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="53" t="s">
+      <c r="A24" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="86" t="s">
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="52"/>
-      <c r="H24" s="51" t="s">
+      <c r="G24" s="49"/>
+      <c r="H24" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="I24" s="52"/>
-      <c r="J24" s="53" t="s">
+      <c r="I24" s="49"/>
+      <c r="J24" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="51" t="s">
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="N24" s="52"/>
-      <c r="O24" s="51" t="s">
+      <c r="N24" s="49"/>
+      <c r="O24" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="P24" s="52"/>
+      <c r="P24" s="49"/>
       <c r="Q24" s="31" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="44"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="44"/>
-      <c r="P25" s="45"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="46"/>
+      <c r="P25" s="47"/>
       <c r="Q25" s="39"/>
     </row>
     <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="44" t="s">
+      <c r="A26" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="49" t="s">
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="I26" s="49"/>
-      <c r="J26" s="48" t="s">
+      <c r="I26" s="57"/>
+      <c r="J26" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="44" t="s">
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="P26" s="45"/>
+      <c r="P26" s="47"/>
       <c r="Q26" s="39" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="49" t="s">
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="I27" s="49"/>
-      <c r="J27" s="48" t="s">
+      <c r="I27" s="57"/>
+      <c r="J27" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="44"/>
-      <c r="N27" s="45"/>
-      <c r="O27" s="44" t="s">
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="P27" s="45"/>
+      <c r="P27" s="47"/>
       <c r="Q27" s="39" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="50"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="49" t="s">
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="I28" s="49"/>
-      <c r="J28" s="48" t="s">
+      <c r="I28" s="57"/>
+      <c r="J28" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="44"/>
-      <c r="N28" s="45"/>
-      <c r="O28" s="44" t="s">
+      <c r="K28" s="54"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="P28" s="45"/>
+      <c r="P28" s="47"/>
       <c r="Q28" s="39" t="s">
         <v>45</v>
       </c>
@@ -3232,25 +3249,25 @@
       <c r="Q29" s="9"/>
     </row>
     <row r="30" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="47"/>
-      <c r="O30" s="47"/>
-      <c r="P30" s="47"/>
-      <c r="Q30" s="47"/>
+      <c r="B30" s="92"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="92"/>
+      <c r="G30" s="92"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="92"/>
+      <c r="J30" s="92"/>
+      <c r="K30" s="92"/>
+      <c r="L30" s="92"/>
+      <c r="M30" s="92"/>
+      <c r="N30" s="92"/>
+      <c r="O30" s="92"/>
+      <c r="P30" s="92"/>
+      <c r="Q30" s="92"/>
     </row>
     <row r="31" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="23"/>
@@ -3291,27 +3308,27 @@
       <c r="Q32" s="24"/>
     </row>
     <row r="33" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="40" t="s">
+      <c r="A33" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
+      <c r="B33" s="88"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="88"/>
+      <c r="E33" s="88"/>
+      <c r="F33" s="88"/>
+      <c r="G33" s="88"/>
       <c r="H33" s="32"/>
       <c r="I33" s="32"/>
-      <c r="J33" s="41" t="s">
+      <c r="J33" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="K33" s="41"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="41"/>
-      <c r="O33" s="41"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
+      <c r="K33" s="89"/>
+      <c r="L33" s="89"/>
+      <c r="M33" s="89"/>
+      <c r="N33" s="89"/>
+      <c r="O33" s="89"/>
+      <c r="P33" s="89"/>
+      <c r="Q33" s="89"/>
     </row>
     <row r="34" spans="1:17" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="24"/>
@@ -3333,248 +3350,248 @@
       <c r="Q34" s="24"/>
     </row>
     <row r="35" spans="1:17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="87" t="s">
+      <c r="A35" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="88"/>
-      <c r="C35" s="88"/>
-      <c r="D35" s="88"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="88"/>
-      <c r="G35" s="89"/>
-      <c r="H35" s="87" t="s">
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="I35" s="88"/>
-      <c r="J35" s="88"/>
-      <c r="K35" s="88"/>
-      <c r="L35" s="88"/>
-      <c r="M35" s="89"/>
-      <c r="N35" s="78" t="s">
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="45"/>
+      <c r="N35" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="O35" s="78"/>
-      <c r="P35" s="78"/>
-      <c r="Q35" s="78"/>
+      <c r="O35" s="66"/>
+      <c r="P35" s="66"/>
+      <c r="Q35" s="66"/>
     </row>
     <row r="36" spans="1:17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="90"/>
-      <c r="B36" s="91"/>
-      <c r="C36" s="91"/>
-      <c r="D36" s="91"/>
-      <c r="E36" s="91"/>
-      <c r="F36" s="91"/>
-      <c r="G36" s="92"/>
-      <c r="H36" s="90"/>
-      <c r="I36" s="91"/>
-      <c r="J36" s="91"/>
-      <c r="K36" s="91"/>
-      <c r="L36" s="91"/>
-      <c r="M36" s="92"/>
-      <c r="N36" s="79" t="s">
+      <c r="A36" s="94"/>
+      <c r="B36" s="95"/>
+      <c r="C36" s="95"/>
+      <c r="D36" s="95"/>
+      <c r="E36" s="95"/>
+      <c r="F36" s="95"/>
+      <c r="G36" s="96"/>
+      <c r="H36" s="94"/>
+      <c r="I36" s="95"/>
+      <c r="J36" s="95"/>
+      <c r="K36" s="95"/>
+      <c r="L36" s="95"/>
+      <c r="M36" s="96"/>
+      <c r="N36" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="O36" s="79"/>
-      <c r="P36" s="79"/>
-      <c r="Q36" s="79"/>
+      <c r="O36" s="67"/>
+      <c r="P36" s="67"/>
+      <c r="Q36" s="67"/>
     </row>
     <row r="37" spans="1:17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="90"/>
-      <c r="B37" s="91"/>
-      <c r="C37" s="91"/>
-      <c r="D37" s="91"/>
-      <c r="E37" s="91"/>
-      <c r="F37" s="91"/>
-      <c r="G37" s="92"/>
-      <c r="H37" s="90"/>
-      <c r="I37" s="91"/>
-      <c r="J37" s="91"/>
-      <c r="K37" s="91"/>
-      <c r="L37" s="91"/>
-      <c r="M37" s="92"/>
-      <c r="N37" s="80"/>
-      <c r="O37" s="80"/>
-      <c r="P37" s="80"/>
-      <c r="Q37" s="80"/>
+      <c r="A37" s="40"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="42"/>
+      <c r="N37" s="68"/>
+      <c r="O37" s="68"/>
+      <c r="P37" s="68"/>
+      <c r="Q37" s="68"/>
     </row>
     <row r="38" spans="1:17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="90"/>
-      <c r="B38" s="91"/>
-      <c r="C38" s="91"/>
-      <c r="D38" s="91"/>
-      <c r="E38" s="91"/>
-      <c r="F38" s="91"/>
-      <c r="G38" s="92"/>
-      <c r="H38" s="90"/>
-      <c r="I38" s="91"/>
-      <c r="J38" s="91"/>
-      <c r="K38" s="91"/>
-      <c r="L38" s="91"/>
-      <c r="M38" s="92"/>
-      <c r="N38" s="80"/>
-      <c r="O38" s="80"/>
-      <c r="P38" s="80"/>
-      <c r="Q38" s="80"/>
+      <c r="A38" s="40"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="42"/>
+      <c r="N38" s="68"/>
+      <c r="O38" s="68"/>
+      <c r="P38" s="68"/>
+      <c r="Q38" s="68"/>
     </row>
     <row r="39" spans="1:17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="90"/>
-      <c r="B39" s="91"/>
-      <c r="C39" s="91"/>
-      <c r="D39" s="91"/>
-      <c r="E39" s="91"/>
-      <c r="F39" s="91"/>
-      <c r="G39" s="92"/>
-      <c r="H39" s="90"/>
-      <c r="I39" s="91"/>
-      <c r="J39" s="91"/>
-      <c r="K39" s="91"/>
-      <c r="L39" s="91"/>
-      <c r="M39" s="92"/>
-      <c r="N39" s="80"/>
-      <c r="O39" s="80"/>
-      <c r="P39" s="80"/>
-      <c r="Q39" s="80"/>
+      <c r="A39" s="40"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="68"/>
+      <c r="O39" s="68"/>
+      <c r="P39" s="68"/>
+      <c r="Q39" s="68"/>
     </row>
     <row r="40" spans="1:17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="90"/>
-      <c r="B40" s="91"/>
-      <c r="C40" s="91"/>
-      <c r="D40" s="91"/>
-      <c r="E40" s="91"/>
-      <c r="F40" s="91"/>
-      <c r="G40" s="92"/>
-      <c r="H40" s="90"/>
-      <c r="I40" s="91"/>
-      <c r="J40" s="91"/>
-      <c r="K40" s="91"/>
-      <c r="L40" s="91"/>
-      <c r="M40" s="92"/>
-      <c r="N40" s="80"/>
-      <c r="O40" s="80"/>
-      <c r="P40" s="80"/>
-      <c r="Q40" s="80"/>
+      <c r="A40" s="40"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="42"/>
+      <c r="N40" s="68"/>
+      <c r="O40" s="68"/>
+      <c r="P40" s="68"/>
+      <c r="Q40" s="68"/>
     </row>
     <row r="41" spans="1:17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="46" t="s">
+      <c r="A41" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="46"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46"/>
-      <c r="I41" s="46"/>
-      <c r="J41" s="46"/>
-      <c r="K41" s="46"/>
-      <c r="L41" s="46"/>
-      <c r="M41" s="46"/>
-      <c r="N41" s="79">
+      <c r="B41" s="91"/>
+      <c r="C41" s="91"/>
+      <c r="D41" s="91"/>
+      <c r="E41" s="91"/>
+      <c r="F41" s="91"/>
+      <c r="G41" s="91"/>
+      <c r="H41" s="91"/>
+      <c r="I41" s="91"/>
+      <c r="J41" s="91"/>
+      <c r="K41" s="91"/>
+      <c r="L41" s="91"/>
+      <c r="M41" s="91"/>
+      <c r="N41" s="67">
         <f>SUM(N36:N40)</f>
         <v>0</v>
       </c>
-      <c r="O41" s="79"/>
-      <c r="P41" s="79"/>
-      <c r="Q41" s="79"/>
+      <c r="O41" s="67"/>
+      <c r="P41" s="67"/>
+      <c r="Q41" s="67"/>
     </row>
     <row r="42" spans="1:17" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="85" t="s">
+      <c r="A42" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="85"/>
-      <c r="C42" s="85"/>
-      <c r="D42" s="85"/>
-      <c r="E42" s="85"/>
-      <c r="F42" s="85"/>
-      <c r="G42" s="85"/>
-      <c r="H42" s="85"/>
-      <c r="I42" s="85"/>
-      <c r="J42" s="85"/>
-      <c r="K42" s="85"/>
-      <c r="L42" s="85"/>
-      <c r="M42" s="85"/>
-      <c r="N42" s="85"/>
-      <c r="O42" s="85"/>
-      <c r="P42" s="85"/>
-      <c r="Q42" s="85"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="53"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="53"/>
+      <c r="M42" s="53"/>
+      <c r="N42" s="53"/>
+      <c r="O42" s="53"/>
+      <c r="P42" s="53"/>
+      <c r="Q42" s="53"/>
     </row>
     <row r="43" spans="1:17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="42" t="s">
+      <c r="A43" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="42"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="42"/>
-      <c r="K43" s="42"/>
-      <c r="L43" s="42"/>
-      <c r="M43" s="42"/>
-      <c r="N43" s="42"/>
-      <c r="O43" s="42"/>
-      <c r="P43" s="42"/>
-      <c r="Q43" s="42"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="59"/>
+      <c r="I43" s="59"/>
+      <c r="J43" s="59"/>
+      <c r="K43" s="59"/>
+      <c r="L43" s="59"/>
+      <c r="M43" s="59"/>
+      <c r="N43" s="59"/>
+      <c r="O43" s="59"/>
+      <c r="P43" s="59"/>
+      <c r="Q43" s="59"/>
     </row>
     <row r="44" spans="1:17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
-      <c r="B44" s="42"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="42"/>
-      <c r="I44" s="42"/>
-      <c r="J44" s="42"/>
-      <c r="K44" s="42"/>
-      <c r="L44" s="42"/>
-      <c r="M44" s="42"/>
-      <c r="N44" s="42"/>
-      <c r="O44" s="42"/>
-      <c r="P44" s="42"/>
-      <c r="Q44" s="42"/>
+      <c r="A44" s="59"/>
+      <c r="B44" s="59"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="59"/>
+      <c r="I44" s="59"/>
+      <c r="J44" s="59"/>
+      <c r="K44" s="59"/>
+      <c r="L44" s="59"/>
+      <c r="M44" s="59"/>
+      <c r="N44" s="59"/>
+      <c r="O44" s="59"/>
+      <c r="P44" s="59"/>
+      <c r="Q44" s="59"/>
     </row>
     <row r="45" spans="1:17" customFormat="1" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="27"/>
-      <c r="B45" s="42"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="42"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="42"/>
-      <c r="H45" s="42"/>
-      <c r="I45" s="42"/>
-      <c r="J45" s="42"/>
-      <c r="K45" s="42"/>
-      <c r="L45" s="42"/>
-      <c r="M45" s="42"/>
-      <c r="N45" s="42"/>
-      <c r="O45" s="42"/>
-      <c r="P45" s="42"/>
+      <c r="B45" s="59"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="59"/>
+      <c r="H45" s="59"/>
+      <c r="I45" s="59"/>
+      <c r="J45" s="59"/>
+      <c r="K45" s="59"/>
+      <c r="L45" s="59"/>
+      <c r="M45" s="59"/>
+      <c r="N45" s="59"/>
+      <c r="O45" s="59"/>
+      <c r="P45" s="59"/>
       <c r="Q45" s="27"/>
     </row>
     <row r="46" spans="1:17" customFormat="1" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
-      <c r="B46" s="42"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="42"/>
-      <c r="L46" s="42"/>
-      <c r="M46" s="42"/>
-      <c r="N46" s="42"/>
-      <c r="O46" s="42"/>
-      <c r="P46" s="42"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="59"/>
+      <c r="H46" s="59"/>
+      <c r="I46" s="59"/>
+      <c r="J46" s="59"/>
+      <c r="K46" s="59"/>
+      <c r="L46" s="59"/>
+      <c r="M46" s="59"/>
+      <c r="N46" s="59"/>
+      <c r="O46" s="59"/>
+      <c r="P46" s="59"/>
       <c r="Q46" s="27"/>
     </row>
     <row r="47" spans="1:17" customFormat="1" ht="1.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -3597,25 +3614,25 @@
       <c r="Q47" s="27"/>
     </row>
     <row r="48" spans="1:17" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="72" t="s">
+      <c r="A48" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="73"/>
-      <c r="C48" s="73"/>
-      <c r="D48" s="73"/>
-      <c r="E48" s="73"/>
-      <c r="F48" s="73"/>
-      <c r="G48" s="73"/>
-      <c r="H48" s="73"/>
-      <c r="I48" s="73"/>
-      <c r="J48" s="73"/>
-      <c r="K48" s="73"/>
-      <c r="L48" s="73"/>
-      <c r="M48" s="73"/>
-      <c r="N48" s="73"/>
-      <c r="O48" s="73"/>
-      <c r="P48" s="73"/>
-      <c r="Q48" s="74"/>
+      <c r="B48" s="61"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="61"/>
+      <c r="G48" s="61"/>
+      <c r="H48" s="61"/>
+      <c r="I48" s="61"/>
+      <c r="J48" s="61"/>
+      <c r="K48" s="61"/>
+      <c r="L48" s="61"/>
+      <c r="M48" s="61"/>
+      <c r="N48" s="61"/>
+      <c r="O48" s="61"/>
+      <c r="P48" s="61"/>
+      <c r="Q48" s="62"/>
     </row>
     <row r="49" spans="1:17" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
@@ -3641,14 +3658,14 @@
       <c r="Q49" s="1"/>
     </row>
     <row r="50" spans="1:17" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="43" t="s">
+      <c r="A50" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="B50" s="43"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="43"/>
+      <c r="B50" s="90"/>
+      <c r="C50" s="90"/>
+      <c r="D50" s="90"/>
+      <c r="E50" s="90"/>
+      <c r="F50" s="90"/>
       <c r="G50" s="26"/>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
@@ -3746,20 +3763,54 @@
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="H39:M39"/>
-    <mergeCell ref="H40:M40"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="A39:G39"/>
-    <mergeCell ref="A40:G40"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="B45:P46"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="A41:M41"/>
+    <mergeCell ref="A30:Q30"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="J33:Q33"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="H14:P14"/>
+    <mergeCell ref="H13:Q13"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="A6:Q6"/>
+    <mergeCell ref="A43:Q44"/>
+    <mergeCell ref="A48:Q48"/>
+    <mergeCell ref="A8:Q8"/>
+    <mergeCell ref="N35:Q35"/>
+    <mergeCell ref="N36:Q36"/>
+    <mergeCell ref="N37:Q37"/>
+    <mergeCell ref="N38:Q38"/>
+    <mergeCell ref="N39:Q39"/>
+    <mergeCell ref="N40:Q40"/>
+    <mergeCell ref="N41:Q41"/>
+    <mergeCell ref="A9:Q9"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="N12:Q12"/>
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="L17:P17"/>
@@ -3776,54 +3827,20 @@
     <mergeCell ref="A24:E24"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A43:Q44"/>
-    <mergeCell ref="A48:Q48"/>
-    <mergeCell ref="A8:Q8"/>
-    <mergeCell ref="N35:Q35"/>
-    <mergeCell ref="N36:Q36"/>
-    <mergeCell ref="N37:Q37"/>
-    <mergeCell ref="N38:Q38"/>
-    <mergeCell ref="N39:Q39"/>
-    <mergeCell ref="N40:Q40"/>
-    <mergeCell ref="N41:Q41"/>
-    <mergeCell ref="A9:Q9"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="A4:Q4"/>
-    <mergeCell ref="A6:Q6"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="H14:P14"/>
-    <mergeCell ref="H13:Q13"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="H37:M37"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="J33:Q33"/>
-    <mergeCell ref="B45:P46"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="A41:M41"/>
-    <mergeCell ref="A30:Q30"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="H39:M39"/>
+    <mergeCell ref="H40:M40"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A40:G40"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -3841,14 +3858,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="2b0bd853-7088-4c19-b00d-053be169d2a6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100D7DFD60F90050F4AA31EBB1C16268563" ma:contentTypeVersion="15" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="868252f0103d6565da4664e5ee304bd1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2b0bd853-7088-4c19-b00d-053be169d2a6" xmlns:ns4="e7c88e36-fb26-4641-87e6-b4d6b980d920" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="80f3d7541ba63afb8833245980b4e488" ns3:_="" ns4:_="">
     <xsd:import namespace="2b0bd853-7088-4c19-b00d-053be169d2a6"/>
@@ -4081,6 +4090,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="2b0bd853-7088-4c19-b00d-053be169d2a6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E7A361B-8181-4793-B122-3274A90D1579}">
   <ds:schemaRefs>
@@ -4090,23 +4107,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E85C31F2-6F54-4105-8496-2F3931A2EC0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="2b0bd853-7088-4c19-b00d-053be169d2a6"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="e7c88e36-fb26-4641-87e6-b4d6b980d920"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C042E4F-4874-46FE-A868-E4642CBEF34F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4123,4 +4123,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E85C31F2-6F54-4105-8496-2F3931A2EC0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="2b0bd853-7088-4c19-b00d-053be169d2a6"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="e7c88e36-fb26-4641-87e6-b4d6b980d920"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/plantilla recibís3.xlsx
+++ b/plantilla recibís3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E925FDB4-8DD3-4692-91BF-BEB31769C651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95E1B71-25E7-4E59-92BB-EBFFF0A15BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{E9D8DCDE-63D1-4129-A233-D881745C52BF}"/>
   </bookViews>
@@ -397,8 +397,8 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Gill Sans MT"/>
+      <sz val="11"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -769,7 +769,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -866,15 +866,6 @@
     <xf numFmtId="2" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1023,17 +1014,18 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1479,7 +1471,7 @@
   <dimension ref="A1:AC54"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A28" zoomScale="91" zoomScaleNormal="100" zoomScalePageLayoutView="91" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:G36"/>
+      <selection activeCell="A37" sqref="A37:M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2629,43 +2621,47 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-    </row>
-    <row r="2" spans="1:29" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="M2" s="93"/>
-      <c r="N2" s="3"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+    </row>
+    <row r="2" spans="1:29" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
       <c r="O2" s="3"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
     </row>
     <row r="3" spans="1:29" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="73"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="70"/>
     </row>
     <row r="4" spans="1:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="76"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="73"/>
     </row>
     <row r="5" spans="1:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
@@ -2689,25 +2685,25 @@
       <c r="Q5" s="30"/>
     </row>
     <row r="6" spans="1:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77"/>
-      <c r="N6" s="77"/>
-      <c r="O6" s="77"/>
-      <c r="P6" s="77"/>
-      <c r="Q6" s="77"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="74"/>
+      <c r="P6" s="74"/>
+      <c r="Q6" s="74"/>
     </row>
     <row r="7" spans="1:29" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
@@ -2729,46 +2725,46 @@
       <c r="Q7" s="9"/>
     </row>
     <row r="8" spans="1:29" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="64"/>
-      <c r="Q8" s="65"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="61"/>
+      <c r="P8" s="61"/>
+      <c r="Q8" s="62"/>
     </row>
     <row r="9" spans="1:29" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="69"/>
-      <c r="P9" s="69"/>
-      <c r="Q9" s="69"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="66"/>
     </row>
     <row r="10" spans="1:29" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
@@ -2823,54 +2819,54 @@
       <c r="AC11" s="6"/>
     </row>
     <row r="12" spans="1:29" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="81" t="s">
+      <c r="A12" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="82"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="84" t="s">
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="84"/>
-      <c r="H12" s="81" t="s">
+      <c r="G12" s="81"/>
+      <c r="H12" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="82"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="82"/>
-      <c r="L12" s="82"/>
-      <c r="M12" s="83"/>
-      <c r="N12" s="81" t="s">
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="80"/>
+      <c r="N12" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="O12" s="82"/>
-      <c r="P12" s="82"/>
-      <c r="Q12" s="83"/>
+      <c r="O12" s="79"/>
+      <c r="P12" s="79"/>
+      <c r="Q12" s="80"/>
     </row>
     <row r="13" spans="1:29" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="85" t="s">
+      <c r="A13" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="85"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="87" t="s">
+      <c r="B13" s="82"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="I13" s="87"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="87"/>
-      <c r="L13" s="87"/>
-      <c r="M13" s="87"/>
-      <c r="N13" s="87"/>
-      <c r="O13" s="87"/>
-      <c r="P13" s="87"/>
-      <c r="Q13" s="87"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="84"/>
+      <c r="M13" s="84"/>
+      <c r="N13" s="84"/>
+      <c r="O13" s="84"/>
+      <c r="P13" s="84"/>
+      <c r="Q13" s="84"/>
     </row>
     <row r="14" spans="1:29" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
@@ -2880,15 +2876,15 @@
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="86"/>
-      <c r="K14" s="86"/>
-      <c r="L14" s="86"/>
-      <c r="M14" s="86"/>
-      <c r="N14" s="86"/>
-      <c r="O14" s="86"/>
-      <c r="P14" s="86"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="83"/>
+      <c r="N14" s="83"/>
+      <c r="O14" s="83"/>
+      <c r="P14" s="83"/>
       <c r="Q14" s="9"/>
     </row>
     <row r="15" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2913,63 +2909,63 @@
       <c r="Q15" s="9"/>
     </row>
     <row r="16" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="78" t="s">
+      <c r="A16" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="79"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="80"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="77"/>
       <c r="F16" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="78" t="s">
+      <c r="G16" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="80"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="77"/>
       <c r="K16" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="L16" s="78" t="s">
+      <c r="L16" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="M16" s="79"/>
-      <c r="N16" s="79"/>
-      <c r="O16" s="79"/>
-      <c r="P16" s="80"/>
+      <c r="M16" s="76"/>
+      <c r="N16" s="76"/>
+      <c r="O16" s="76"/>
+      <c r="P16" s="77"/>
       <c r="Q16" s="18" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="52"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="49"/>
       <c r="F17" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="50" t="s">
+      <c r="G17" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="52"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="49"/>
       <c r="K17" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="L17" s="50" t="s">
+      <c r="L17" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="52"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="49"/>
       <c r="Q17" s="20" t="s">
         <v>44</v>
       </c>
@@ -3091,140 +3087,140 @@
       <c r="Q23" s="9"/>
     </row>
     <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="58" t="s">
+      <c r="A24" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="56" t="s">
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="49"/>
-      <c r="H24" s="48" t="s">
+      <c r="G24" s="46"/>
+      <c r="H24" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="I24" s="49"/>
-      <c r="J24" s="58" t="s">
+      <c r="I24" s="46"/>
+      <c r="J24" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="K24" s="58"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="48" t="s">
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="N24" s="49"/>
-      <c r="O24" s="48" t="s">
+      <c r="N24" s="46"/>
+      <c r="O24" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="P24" s="49"/>
+      <c r="P24" s="46"/>
       <c r="Q24" s="31" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="46"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="46"/>
-      <c r="P25" s="47"/>
+      <c r="A25" s="43"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="44"/>
       <c r="Q25" s="39"/>
     </row>
     <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="46" t="s">
+      <c r="A26" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="57" t="s">
+      <c r="B26" s="52"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="I26" s="57"/>
-      <c r="J26" s="54" t="s">
+      <c r="I26" s="54"/>
+      <c r="J26" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="K26" s="54"/>
-      <c r="L26" s="54"/>
-      <c r="M26" s="46"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="46" t="s">
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="P26" s="47"/>
+      <c r="P26" s="44"/>
       <c r="Q26" s="39" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="46" t="s">
+      <c r="A27" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="57" t="s">
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="I27" s="57"/>
-      <c r="J27" s="54" t="s">
+      <c r="I27" s="54"/>
+      <c r="J27" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="K27" s="54"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="46" t="s">
+      <c r="K27" s="51"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="P27" s="47"/>
+      <c r="P27" s="44"/>
       <c r="Q27" s="39" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="46" t="s">
+      <c r="A28" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="57" t="s">
+      <c r="B28" s="52"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="I28" s="57"/>
-      <c r="J28" s="54" t="s">
+      <c r="I28" s="54"/>
+      <c r="J28" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="K28" s="54"/>
-      <c r="L28" s="54"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="46" t="s">
+      <c r="K28" s="51"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="44"/>
+      <c r="O28" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="P28" s="47"/>
+      <c r="P28" s="44"/>
       <c r="Q28" s="39" t="s">
         <v>45</v>
       </c>
@@ -3249,25 +3245,25 @@
       <c r="Q29" s="9"/>
     </row>
     <row r="30" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="92" t="s">
+      <c r="A30" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="92"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="92"/>
-      <c r="G30" s="92"/>
-      <c r="H30" s="92"/>
-      <c r="I30" s="92"/>
-      <c r="J30" s="92"/>
-      <c r="K30" s="92"/>
-      <c r="L30" s="92"/>
-      <c r="M30" s="92"/>
-      <c r="N30" s="92"/>
-      <c r="O30" s="92"/>
-      <c r="P30" s="92"/>
-      <c r="Q30" s="92"/>
+      <c r="B30" s="89"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="89"/>
+      <c r="G30" s="89"/>
+      <c r="H30" s="89"/>
+      <c r="I30" s="89"/>
+      <c r="J30" s="89"/>
+      <c r="K30" s="89"/>
+      <c r="L30" s="89"/>
+      <c r="M30" s="89"/>
+      <c r="N30" s="89"/>
+      <c r="O30" s="89"/>
+      <c r="P30" s="89"/>
+      <c r="Q30" s="89"/>
     </row>
     <row r="31" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="23"/>
@@ -3308,27 +3304,27 @@
       <c r="Q32" s="24"/>
     </row>
     <row r="33" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="88" t="s">
+      <c r="A33" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="88"/>
-      <c r="C33" s="88"/>
-      <c r="D33" s="88"/>
-      <c r="E33" s="88"/>
-      <c r="F33" s="88"/>
-      <c r="G33" s="88"/>
+      <c r="B33" s="85"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="85"/>
+      <c r="G33" s="85"/>
       <c r="H33" s="32"/>
       <c r="I33" s="32"/>
-      <c r="J33" s="89" t="s">
+      <c r="J33" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="K33" s="89"/>
-      <c r="L33" s="89"/>
-      <c r="M33" s="89"/>
-      <c r="N33" s="89"/>
-      <c r="O33" s="89"/>
-      <c r="P33" s="89"/>
-      <c r="Q33" s="89"/>
+      <c r="K33" s="86"/>
+      <c r="L33" s="86"/>
+      <c r="M33" s="86"/>
+      <c r="N33" s="86"/>
+      <c r="O33" s="86"/>
+      <c r="P33" s="86"/>
+      <c r="Q33" s="86"/>
     </row>
     <row r="34" spans="1:17" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="24"/>
@@ -3350,248 +3346,248 @@
       <c r="Q34" s="24"/>
     </row>
     <row r="35" spans="1:17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="43" t="s">
+      <c r="A35" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="43" t="s">
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="I35" s="44"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="44"/>
-      <c r="L35" s="44"/>
-      <c r="M35" s="45"/>
-      <c r="N35" s="66" t="s">
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="42"/>
+      <c r="N35" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="O35" s="66"/>
-      <c r="P35" s="66"/>
-      <c r="Q35" s="66"/>
+      <c r="O35" s="63"/>
+      <c r="P35" s="63"/>
+      <c r="Q35" s="63"/>
     </row>
     <row r="36" spans="1:17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="94"/>
-      <c r="B36" s="95"/>
-      <c r="C36" s="95"/>
-      <c r="D36" s="95"/>
-      <c r="E36" s="95"/>
-      <c r="F36" s="95"/>
-      <c r="G36" s="96"/>
-      <c r="H36" s="94"/>
-      <c r="I36" s="95"/>
-      <c r="J36" s="95"/>
-      <c r="K36" s="95"/>
-      <c r="L36" s="95"/>
-      <c r="M36" s="96"/>
-      <c r="N36" s="67" t="s">
+      <c r="A36" s="90"/>
+      <c r="B36" s="91"/>
+      <c r="C36" s="91"/>
+      <c r="D36" s="91"/>
+      <c r="E36" s="91"/>
+      <c r="F36" s="91"/>
+      <c r="G36" s="92"/>
+      <c r="H36" s="90"/>
+      <c r="I36" s="91"/>
+      <c r="J36" s="91"/>
+      <c r="K36" s="91"/>
+      <c r="L36" s="91"/>
+      <c r="M36" s="92"/>
+      <c r="N36" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="O36" s="67"/>
-      <c r="P36" s="67"/>
-      <c r="Q36" s="67"/>
+      <c r="O36" s="64"/>
+      <c r="P36" s="64"/>
+      <c r="Q36" s="64"/>
     </row>
     <row r="37" spans="1:17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="41"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="42"/>
-      <c r="N37" s="68"/>
-      <c r="O37" s="68"/>
-      <c r="P37" s="68"/>
-      <c r="Q37" s="68"/>
+      <c r="A37" s="90"/>
+      <c r="B37" s="91"/>
+      <c r="C37" s="91"/>
+      <c r="D37" s="91"/>
+      <c r="E37" s="91"/>
+      <c r="F37" s="91"/>
+      <c r="G37" s="92"/>
+      <c r="H37" s="90"/>
+      <c r="I37" s="91"/>
+      <c r="J37" s="91"/>
+      <c r="K37" s="91"/>
+      <c r="L37" s="91"/>
+      <c r="M37" s="92"/>
+      <c r="N37" s="65"/>
+      <c r="O37" s="65"/>
+      <c r="P37" s="65"/>
+      <c r="Q37" s="65"/>
     </row>
     <row r="38" spans="1:17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="40"/>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="42"/>
-      <c r="N38" s="68"/>
-      <c r="O38" s="68"/>
-      <c r="P38" s="68"/>
-      <c r="Q38" s="68"/>
+      <c r="A38" s="90"/>
+      <c r="B38" s="91"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="91"/>
+      <c r="E38" s="91"/>
+      <c r="F38" s="91"/>
+      <c r="G38" s="92"/>
+      <c r="H38" s="90"/>
+      <c r="I38" s="91"/>
+      <c r="J38" s="91"/>
+      <c r="K38" s="91"/>
+      <c r="L38" s="91"/>
+      <c r="M38" s="92"/>
+      <c r="N38" s="65"/>
+      <c r="O38" s="65"/>
+      <c r="P38" s="65"/>
+      <c r="Q38" s="65"/>
     </row>
     <row r="39" spans="1:17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="40"/>
-      <c r="B39" s="41"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="42"/>
-      <c r="N39" s="68"/>
-      <c r="O39" s="68"/>
-      <c r="P39" s="68"/>
-      <c r="Q39" s="68"/>
+      <c r="A39" s="90"/>
+      <c r="B39" s="91"/>
+      <c r="C39" s="91"/>
+      <c r="D39" s="91"/>
+      <c r="E39" s="91"/>
+      <c r="F39" s="91"/>
+      <c r="G39" s="92"/>
+      <c r="H39" s="90"/>
+      <c r="I39" s="91"/>
+      <c r="J39" s="91"/>
+      <c r="K39" s="91"/>
+      <c r="L39" s="91"/>
+      <c r="M39" s="92"/>
+      <c r="N39" s="65"/>
+      <c r="O39" s="65"/>
+      <c r="P39" s="65"/>
+      <c r="Q39" s="65"/>
     </row>
     <row r="40" spans="1:17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="40"/>
-      <c r="B40" s="41"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="41"/>
-      <c r="M40" s="42"/>
-      <c r="N40" s="68"/>
-      <c r="O40" s="68"/>
-      <c r="P40" s="68"/>
-      <c r="Q40" s="68"/>
+      <c r="A40" s="90"/>
+      <c r="B40" s="91"/>
+      <c r="C40" s="91"/>
+      <c r="D40" s="91"/>
+      <c r="E40" s="91"/>
+      <c r="F40" s="91"/>
+      <c r="G40" s="92"/>
+      <c r="H40" s="90"/>
+      <c r="I40" s="91"/>
+      <c r="J40" s="91"/>
+      <c r="K40" s="91"/>
+      <c r="L40" s="91"/>
+      <c r="M40" s="92"/>
+      <c r="N40" s="65"/>
+      <c r="O40" s="65"/>
+      <c r="P40" s="65"/>
+      <c r="Q40" s="65"/>
     </row>
     <row r="41" spans="1:17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="91" t="s">
+      <c r="A41" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="91"/>
-      <c r="C41" s="91"/>
-      <c r="D41" s="91"/>
-      <c r="E41" s="91"/>
-      <c r="F41" s="91"/>
-      <c r="G41" s="91"/>
-      <c r="H41" s="91"/>
-      <c r="I41" s="91"/>
-      <c r="J41" s="91"/>
-      <c r="K41" s="91"/>
-      <c r="L41" s="91"/>
-      <c r="M41" s="91"/>
-      <c r="N41" s="67">
+      <c r="B41" s="88"/>
+      <c r="C41" s="88"/>
+      <c r="D41" s="88"/>
+      <c r="E41" s="88"/>
+      <c r="F41" s="88"/>
+      <c r="G41" s="88"/>
+      <c r="H41" s="88"/>
+      <c r="I41" s="88"/>
+      <c r="J41" s="88"/>
+      <c r="K41" s="88"/>
+      <c r="L41" s="88"/>
+      <c r="M41" s="88"/>
+      <c r="N41" s="64">
         <f>SUM(N36:N40)</f>
         <v>0</v>
       </c>
-      <c r="O41" s="67"/>
-      <c r="P41" s="67"/>
-      <c r="Q41" s="67"/>
+      <c r="O41" s="64"/>
+      <c r="P41" s="64"/>
+      <c r="Q41" s="64"/>
     </row>
     <row r="42" spans="1:17" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="53" t="s">
+      <c r="A42" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="53"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="53"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="53"/>
-      <c r="M42" s="53"/>
-      <c r="N42" s="53"/>
-      <c r="O42" s="53"/>
-      <c r="P42" s="53"/>
-      <c r="Q42" s="53"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="50"/>
+      <c r="K42" s="50"/>
+      <c r="L42" s="50"/>
+      <c r="M42" s="50"/>
+      <c r="N42" s="50"/>
+      <c r="O42" s="50"/>
+      <c r="P42" s="50"/>
+      <c r="Q42" s="50"/>
     </row>
     <row r="43" spans="1:17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="59" t="s">
+      <c r="A43" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="59"/>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="59"/>
-      <c r="F43" s="59"/>
-      <c r="G43" s="59"/>
-      <c r="H43" s="59"/>
-      <c r="I43" s="59"/>
-      <c r="J43" s="59"/>
-      <c r="K43" s="59"/>
-      <c r="L43" s="59"/>
-      <c r="M43" s="59"/>
-      <c r="N43" s="59"/>
-      <c r="O43" s="59"/>
-      <c r="P43" s="59"/>
-      <c r="Q43" s="59"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="56"/>
+      <c r="I43" s="56"/>
+      <c r="J43" s="56"/>
+      <c r="K43" s="56"/>
+      <c r="L43" s="56"/>
+      <c r="M43" s="56"/>
+      <c r="N43" s="56"/>
+      <c r="O43" s="56"/>
+      <c r="P43" s="56"/>
+      <c r="Q43" s="56"/>
     </row>
     <row r="44" spans="1:17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="59"/>
-      <c r="B44" s="59"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="59"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="59"/>
-      <c r="H44" s="59"/>
-      <c r="I44" s="59"/>
-      <c r="J44" s="59"/>
-      <c r="K44" s="59"/>
-      <c r="L44" s="59"/>
-      <c r="M44" s="59"/>
-      <c r="N44" s="59"/>
-      <c r="O44" s="59"/>
-      <c r="P44" s="59"/>
-      <c r="Q44" s="59"/>
+      <c r="A44" s="56"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="56"/>
+      <c r="I44" s="56"/>
+      <c r="J44" s="56"/>
+      <c r="K44" s="56"/>
+      <c r="L44" s="56"/>
+      <c r="M44" s="56"/>
+      <c r="N44" s="56"/>
+      <c r="O44" s="56"/>
+      <c r="P44" s="56"/>
+      <c r="Q44" s="56"/>
     </row>
     <row r="45" spans="1:17" customFormat="1" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="27"/>
-      <c r="B45" s="59"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="59"/>
-      <c r="H45" s="59"/>
-      <c r="I45" s="59"/>
-      <c r="J45" s="59"/>
-      <c r="K45" s="59"/>
-      <c r="L45" s="59"/>
-      <c r="M45" s="59"/>
-      <c r="N45" s="59"/>
-      <c r="O45" s="59"/>
-      <c r="P45" s="59"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="56"/>
+      <c r="H45" s="56"/>
+      <c r="I45" s="56"/>
+      <c r="J45" s="56"/>
+      <c r="K45" s="56"/>
+      <c r="L45" s="56"/>
+      <c r="M45" s="56"/>
+      <c r="N45" s="56"/>
+      <c r="O45" s="56"/>
+      <c r="P45" s="56"/>
       <c r="Q45" s="27"/>
     </row>
     <row r="46" spans="1:17" customFormat="1" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="59"/>
-      <c r="H46" s="59"/>
-      <c r="I46" s="59"/>
-      <c r="J46" s="59"/>
-      <c r="K46" s="59"/>
-      <c r="L46" s="59"/>
-      <c r="M46" s="59"/>
-      <c r="N46" s="59"/>
-      <c r="O46" s="59"/>
-      <c r="P46" s="59"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="56"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="56"/>
+      <c r="H46" s="56"/>
+      <c r="I46" s="56"/>
+      <c r="J46" s="56"/>
+      <c r="K46" s="56"/>
+      <c r="L46" s="56"/>
+      <c r="M46" s="56"/>
+      <c r="N46" s="56"/>
+      <c r="O46" s="56"/>
+      <c r="P46" s="56"/>
       <c r="Q46" s="27"/>
     </row>
     <row r="47" spans="1:17" customFormat="1" ht="1.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -3614,25 +3610,25 @@
       <c r="Q47" s="27"/>
     </row>
     <row r="48" spans="1:17" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="60" t="s">
+      <c r="A48" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="61"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="61"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="61"/>
-      <c r="G48" s="61"/>
-      <c r="H48" s="61"/>
-      <c r="I48" s="61"/>
-      <c r="J48" s="61"/>
-      <c r="K48" s="61"/>
-      <c r="L48" s="61"/>
-      <c r="M48" s="61"/>
-      <c r="N48" s="61"/>
-      <c r="O48" s="61"/>
-      <c r="P48" s="61"/>
-      <c r="Q48" s="62"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="58"/>
+      <c r="E48" s="58"/>
+      <c r="F48" s="58"/>
+      <c r="G48" s="58"/>
+      <c r="H48" s="58"/>
+      <c r="I48" s="58"/>
+      <c r="J48" s="58"/>
+      <c r="K48" s="58"/>
+      <c r="L48" s="58"/>
+      <c r="M48" s="58"/>
+      <c r="N48" s="58"/>
+      <c r="O48" s="58"/>
+      <c r="P48" s="58"/>
+      <c r="Q48" s="59"/>
     </row>
     <row r="49" spans="1:17" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
@@ -3658,14 +3654,14 @@
       <c r="Q49" s="1"/>
     </row>
     <row r="50" spans="1:17" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="90" t="s">
+      <c r="A50" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="B50" s="90"/>
-      <c r="C50" s="90"/>
-      <c r="D50" s="90"/>
-      <c r="E50" s="90"/>
-      <c r="F50" s="90"/>
+      <c r="B50" s="87"/>
+      <c r="C50" s="87"/>
+      <c r="D50" s="87"/>
+      <c r="E50" s="87"/>
+      <c r="F50" s="87"/>
       <c r="G50" s="26"/>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>

--- a/plantilla recibís3.xlsx
+++ b/plantilla recibís3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95E1B71-25E7-4E59-92BB-EBFFF0A15BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784DB9C4-919A-4D63-877C-19080EE4A6C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{E9D8DCDE-63D1-4129-A233-D881745C52BF}"/>
   </bookViews>
@@ -866,166 +866,166 @@
     <xf numFmtId="2" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1470,8 +1470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4877F8E-1F6D-418F-B999-C4A9577F48A0}">
   <dimension ref="A1:AC54"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A28" zoomScale="91" zoomScaleNormal="100" zoomScalePageLayoutView="91" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:M40"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A30" zoomScale="91" zoomScaleNormal="100" zoomScalePageLayoutView="91" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:XFD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2621,47 +2621,47 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
     </row>
     <row r="2" spans="1:29" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
       <c r="O2" s="3"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
     </row>
     <row r="3" spans="1:29" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="70"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="72"/>
     </row>
     <row r="4" spans="1:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="75"/>
     </row>
     <row r="5" spans="1:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
@@ -2685,25 +2685,25 @@
       <c r="Q5" s="30"/>
     </row>
     <row r="6" spans="1:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74"/>
-      <c r="O6" s="74"/>
-      <c r="P6" s="74"/>
-      <c r="Q6" s="74"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="76"/>
     </row>
     <row r="7" spans="1:29" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
@@ -2725,46 +2725,46 @@
       <c r="Q7" s="9"/>
     </row>
     <row r="8" spans="1:29" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="62"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="81"/>
+      <c r="P8" s="81"/>
+      <c r="Q8" s="82"/>
     </row>
     <row r="9" spans="1:29" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="66"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="66"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="86"/>
+      <c r="N9" s="86"/>
+      <c r="O9" s="86"/>
+      <c r="P9" s="86"/>
+      <c r="Q9" s="86"/>
     </row>
     <row r="10" spans="1:29" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
@@ -2819,54 +2819,54 @@
       <c r="AC11" s="6"/>
     </row>
     <row r="12" spans="1:29" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="81" t="s">
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="81"/>
-      <c r="H12" s="78" t="s">
+      <c r="G12" s="62"/>
+      <c r="H12" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="79"/>
-      <c r="J12" s="79"/>
-      <c r="K12" s="79"/>
-      <c r="L12" s="79"/>
-      <c r="M12" s="80"/>
-      <c r="N12" s="78" t="s">
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="O12" s="79"/>
-      <c r="P12" s="79"/>
-      <c r="Q12" s="80"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="65"/>
+      <c r="Q12" s="66"/>
     </row>
     <row r="13" spans="1:29" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="82" t="s">
+      <c r="A13" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="82"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="84" t="s">
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="I13" s="84"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="84"/>
-      <c r="L13" s="84"/>
-      <c r="M13" s="84"/>
-      <c r="N13" s="84"/>
-      <c r="O13" s="84"/>
-      <c r="P13" s="84"/>
-      <c r="Q13" s="84"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="68"/>
     </row>
     <row r="14" spans="1:29" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
@@ -2876,15 +2876,15 @@
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="83"/>
-      <c r="K14" s="83"/>
-      <c r="L14" s="83"/>
-      <c r="M14" s="83"/>
-      <c r="N14" s="83"/>
-      <c r="O14" s="83"/>
-      <c r="P14" s="83"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="67"/>
+      <c r="P14" s="67"/>
       <c r="Q14" s="9"/>
     </row>
     <row r="15" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2909,63 +2909,63 @@
       <c r="Q15" s="9"/>
     </row>
     <row r="16" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="75" t="s">
+      <c r="A16" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="76"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="77"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="89"/>
       <c r="F16" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="75" t="s">
+      <c r="G16" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="77"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="89"/>
       <c r="K16" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="L16" s="75" t="s">
+      <c r="L16" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="M16" s="76"/>
-      <c r="N16" s="76"/>
-      <c r="O16" s="76"/>
-      <c r="P16" s="77"/>
+      <c r="M16" s="88"/>
+      <c r="N16" s="88"/>
+      <c r="O16" s="88"/>
+      <c r="P16" s="89"/>
       <c r="Q16" s="18" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="49"/>
+      <c r="B17" s="91"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="92"/>
       <c r="F17" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="47" t="s">
+      <c r="G17" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="49"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="92"/>
       <c r="K17" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="L17" s="47" t="s">
+      <c r="L17" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="49"/>
+      <c r="M17" s="91"/>
+      <c r="N17" s="91"/>
+      <c r="O17" s="91"/>
+      <c r="P17" s="92"/>
       <c r="Q17" s="20" t="s">
         <v>44</v>
       </c>
@@ -3087,140 +3087,140 @@
       <c r="Q23" s="9"/>
     </row>
     <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="55" t="s">
+      <c r="A24" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="53" t="s">
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="46"/>
-      <c r="H24" s="45" t="s">
+      <c r="G24" s="59"/>
+      <c r="H24" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="I24" s="46"/>
-      <c r="J24" s="55" t="s">
+      <c r="I24" s="59"/>
+      <c r="J24" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="45" t="s">
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="N24" s="46"/>
-      <c r="O24" s="45" t="s">
+      <c r="N24" s="59"/>
+      <c r="O24" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="P24" s="46"/>
+      <c r="P24" s="59"/>
       <c r="Q24" s="31" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="43"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="44"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="44"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="45"/>
       <c r="Q25" s="39"/>
     </row>
     <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="52"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="54" t="s">
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="I26" s="54"/>
-      <c r="J26" s="51" t="s">
+      <c r="I26" s="48"/>
+      <c r="J26" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="43"/>
-      <c r="N26" s="44"/>
-      <c r="O26" s="43" t="s">
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="P26" s="44"/>
+      <c r="P26" s="45"/>
       <c r="Q26" s="39" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="54" t="s">
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="I27" s="54"/>
-      <c r="J27" s="51" t="s">
+      <c r="I27" s="48"/>
+      <c r="J27" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="K27" s="51"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="43"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="43" t="s">
+      <c r="K27" s="61"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="P27" s="44"/>
+      <c r="P27" s="45"/>
       <c r="Q27" s="39" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="52"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="54" t="s">
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="I28" s="54"/>
-      <c r="J28" s="51" t="s">
+      <c r="I28" s="48"/>
+      <c r="J28" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="K28" s="51"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="44"/>
-      <c r="O28" s="43" t="s">
+      <c r="K28" s="61"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="P28" s="44"/>
+      <c r="P28" s="45"/>
       <c r="Q28" s="39" t="s">
         <v>45</v>
       </c>
@@ -3245,25 +3245,25 @@
       <c r="Q29" s="9"/>
     </row>
     <row r="30" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="89" t="s">
+      <c r="A30" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="89"/>
-      <c r="C30" s="89"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="89"/>
-      <c r="H30" s="89"/>
-      <c r="I30" s="89"/>
-      <c r="J30" s="89"/>
-      <c r="K30" s="89"/>
-      <c r="L30" s="89"/>
-      <c r="M30" s="89"/>
-      <c r="N30" s="89"/>
-      <c r="O30" s="89"/>
-      <c r="P30" s="89"/>
-      <c r="Q30" s="89"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="47"/>
+      <c r="O30" s="47"/>
+      <c r="P30" s="47"/>
+      <c r="Q30" s="47"/>
     </row>
     <row r="31" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="23"/>
@@ -3304,27 +3304,27 @@
       <c r="Q32" s="24"/>
     </row>
     <row r="33" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="85" t="s">
+      <c r="A33" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="85"/>
-      <c r="C33" s="85"/>
-      <c r="D33" s="85"/>
-      <c r="E33" s="85"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="85"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
       <c r="H33" s="32"/>
       <c r="I33" s="32"/>
-      <c r="J33" s="86" t="s">
+      <c r="J33" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="K33" s="86"/>
-      <c r="L33" s="86"/>
-      <c r="M33" s="86"/>
-      <c r="N33" s="86"/>
-      <c r="O33" s="86"/>
-      <c r="P33" s="86"/>
-      <c r="Q33" s="86"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="56"/>
+      <c r="N33" s="56"/>
+      <c r="O33" s="56"/>
+      <c r="P33" s="56"/>
+      <c r="Q33" s="56"/>
     </row>
     <row r="34" spans="1:17" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="24"/>
@@ -3346,251 +3346,251 @@
       <c r="Q34" s="24"/>
     </row>
     <row r="35" spans="1:17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="40" t="s">
+      <c r="A35" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="40" t="s">
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="I35" s="41"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="42"/>
-      <c r="N35" s="63" t="s">
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="51"/>
+      <c r="N35" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="O35" s="63"/>
-      <c r="P35" s="63"/>
-      <c r="Q35" s="63"/>
+      <c r="O35" s="83"/>
+      <c r="P35" s="83"/>
+      <c r="Q35" s="83"/>
     </row>
     <row r="36" spans="1:17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="90"/>
-      <c r="B36" s="91"/>
-      <c r="C36" s="91"/>
-      <c r="D36" s="91"/>
-      <c r="E36" s="91"/>
-      <c r="F36" s="91"/>
-      <c r="G36" s="92"/>
-      <c r="H36" s="90"/>
-      <c r="I36" s="91"/>
-      <c r="J36" s="91"/>
-      <c r="K36" s="91"/>
-      <c r="L36" s="91"/>
-      <c r="M36" s="92"/>
-      <c r="N36" s="64" t="s">
+      <c r="A36" s="52"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="53"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="O36" s="64"/>
-      <c r="P36" s="64"/>
-      <c r="Q36" s="64"/>
+      <c r="O36" s="84"/>
+      <c r="P36" s="84"/>
+      <c r="Q36" s="84"/>
     </row>
     <row r="37" spans="1:17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="90"/>
-      <c r="B37" s="91"/>
-      <c r="C37" s="91"/>
-      <c r="D37" s="91"/>
-      <c r="E37" s="91"/>
-      <c r="F37" s="91"/>
-      <c r="G37" s="92"/>
-      <c r="H37" s="90"/>
-      <c r="I37" s="91"/>
-      <c r="J37" s="91"/>
-      <c r="K37" s="91"/>
-      <c r="L37" s="91"/>
-      <c r="M37" s="92"/>
-      <c r="N37" s="65"/>
-      <c r="O37" s="65"/>
-      <c r="P37" s="65"/>
-      <c r="Q37" s="65"/>
+      <c r="A37" s="52"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="53"/>
+      <c r="M37" s="54"/>
+      <c r="N37" s="85"/>
+      <c r="O37" s="85"/>
+      <c r="P37" s="85"/>
+      <c r="Q37" s="85"/>
     </row>
     <row r="38" spans="1:17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="90"/>
-      <c r="B38" s="91"/>
-      <c r="C38" s="91"/>
-      <c r="D38" s="91"/>
-      <c r="E38" s="91"/>
-      <c r="F38" s="91"/>
-      <c r="G38" s="92"/>
-      <c r="H38" s="90"/>
-      <c r="I38" s="91"/>
-      <c r="J38" s="91"/>
-      <c r="K38" s="91"/>
-      <c r="L38" s="91"/>
-      <c r="M38" s="92"/>
-      <c r="N38" s="65"/>
-      <c r="O38" s="65"/>
-      <c r="P38" s="65"/>
-      <c r="Q38" s="65"/>
+      <c r="A38" s="52"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="53"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="53"/>
+      <c r="M38" s="54"/>
+      <c r="N38" s="85"/>
+      <c r="O38" s="85"/>
+      <c r="P38" s="85"/>
+      <c r="Q38" s="85"/>
     </row>
     <row r="39" spans="1:17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="90"/>
-      <c r="B39" s="91"/>
-      <c r="C39" s="91"/>
-      <c r="D39" s="91"/>
-      <c r="E39" s="91"/>
-      <c r="F39" s="91"/>
-      <c r="G39" s="92"/>
-      <c r="H39" s="90"/>
-      <c r="I39" s="91"/>
-      <c r="J39" s="91"/>
-      <c r="K39" s="91"/>
-      <c r="L39" s="91"/>
-      <c r="M39" s="92"/>
-      <c r="N39" s="65"/>
-      <c r="O39" s="65"/>
-      <c r="P39" s="65"/>
-      <c r="Q39" s="65"/>
+      <c r="A39" s="52"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="53"/>
+      <c r="M39" s="54"/>
+      <c r="N39" s="85"/>
+      <c r="O39" s="85"/>
+      <c r="P39" s="85"/>
+      <c r="Q39" s="85"/>
     </row>
     <row r="40" spans="1:17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="90"/>
-      <c r="B40" s="91"/>
-      <c r="C40" s="91"/>
-      <c r="D40" s="91"/>
-      <c r="E40" s="91"/>
-      <c r="F40" s="91"/>
-      <c r="G40" s="92"/>
-      <c r="H40" s="90"/>
-      <c r="I40" s="91"/>
-      <c r="J40" s="91"/>
-      <c r="K40" s="91"/>
-      <c r="L40" s="91"/>
-      <c r="M40" s="92"/>
-      <c r="N40" s="65"/>
-      <c r="O40" s="65"/>
-      <c r="P40" s="65"/>
-      <c r="Q40" s="65"/>
+      <c r="A40" s="52"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="54"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="53"/>
+      <c r="M40" s="54"/>
+      <c r="N40" s="85"/>
+      <c r="O40" s="85"/>
+      <c r="P40" s="85"/>
+      <c r="Q40" s="85"/>
     </row>
     <row r="41" spans="1:17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="88" t="s">
+      <c r="A41" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="88"/>
-      <c r="C41" s="88"/>
-      <c r="D41" s="88"/>
-      <c r="E41" s="88"/>
-      <c r="F41" s="88"/>
-      <c r="G41" s="88"/>
-      <c r="H41" s="88"/>
-      <c r="I41" s="88"/>
-      <c r="J41" s="88"/>
-      <c r="K41" s="88"/>
-      <c r="L41" s="88"/>
-      <c r="M41" s="88"/>
-      <c r="N41" s="64">
+      <c r="B41" s="46"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="46"/>
+      <c r="M41" s="46"/>
+      <c r="N41" s="84">
         <f>SUM(N36:N40)</f>
         <v>0</v>
       </c>
-      <c r="O41" s="64"/>
-      <c r="P41" s="64"/>
-      <c r="Q41" s="64"/>
+      <c r="O41" s="84"/>
+      <c r="P41" s="84"/>
+      <c r="Q41" s="84"/>
     </row>
     <row r="42" spans="1:17" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="50" t="s">
+      <c r="A42" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="50"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="50"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="50"/>
-      <c r="G42" s="50"/>
-      <c r="H42" s="50"/>
-      <c r="I42" s="50"/>
-      <c r="J42" s="50"/>
-      <c r="K42" s="50"/>
-      <c r="L42" s="50"/>
-      <c r="M42" s="50"/>
-      <c r="N42" s="50"/>
-      <c r="O42" s="50"/>
-      <c r="P42" s="50"/>
-      <c r="Q42" s="50"/>
+      <c r="B42" s="93"/>
+      <c r="C42" s="93"/>
+      <c r="D42" s="93"/>
+      <c r="E42" s="93"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="93"/>
+      <c r="H42" s="93"/>
+      <c r="I42" s="93"/>
+      <c r="J42" s="93"/>
+      <c r="K42" s="93"/>
+      <c r="L42" s="93"/>
+      <c r="M42" s="93"/>
+      <c r="N42" s="93"/>
+      <c r="O42" s="93"/>
+      <c r="P42" s="93"/>
+      <c r="Q42" s="93"/>
     </row>
     <row r="43" spans="1:17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="56" t="s">
+      <c r="A43" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="56"/>
-      <c r="C43" s="56"/>
-      <c r="D43" s="56"/>
-      <c r="E43" s="56"/>
-      <c r="F43" s="56"/>
-      <c r="G43" s="56"/>
-      <c r="H43" s="56"/>
-      <c r="I43" s="56"/>
-      <c r="J43" s="56"/>
-      <c r="K43" s="56"/>
-      <c r="L43" s="56"/>
-      <c r="M43" s="56"/>
-      <c r="N43" s="56"/>
-      <c r="O43" s="56"/>
-      <c r="P43" s="56"/>
-      <c r="Q43" s="56"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="42"/>
+      <c r="L43" s="42"/>
+      <c r="M43" s="42"/>
+      <c r="N43" s="42"/>
+      <c r="O43" s="42"/>
+      <c r="P43" s="42"/>
+      <c r="Q43" s="42"/>
     </row>
     <row r="44" spans="1:17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="56"/>
-      <c r="B44" s="56"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="56"/>
-      <c r="H44" s="56"/>
-      <c r="I44" s="56"/>
-      <c r="J44" s="56"/>
-      <c r="K44" s="56"/>
-      <c r="L44" s="56"/>
-      <c r="M44" s="56"/>
-      <c r="N44" s="56"/>
-      <c r="O44" s="56"/>
-      <c r="P44" s="56"/>
-      <c r="Q44" s="56"/>
-    </row>
-    <row r="45" spans="1:17" customFormat="1" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="42"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="42"/>
+      <c r="L44" s="42"/>
+      <c r="M44" s="42"/>
+      <c r="N44" s="42"/>
+      <c r="O44" s="42"/>
+      <c r="P44" s="42"/>
+      <c r="Q44" s="42"/>
+    </row>
+    <row r="45" spans="1:17" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="27"/>
-      <c r="B45" s="56"/>
-      <c r="C45" s="56"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="56"/>
-      <c r="H45" s="56"/>
-      <c r="I45" s="56"/>
-      <c r="J45" s="56"/>
-      <c r="K45" s="56"/>
-      <c r="L45" s="56"/>
-      <c r="M45" s="56"/>
-      <c r="N45" s="56"/>
-      <c r="O45" s="56"/>
-      <c r="P45" s="56"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="42"/>
+      <c r="M45" s="42"/>
+      <c r="N45" s="42"/>
+      <c r="O45" s="42"/>
+      <c r="P45" s="42"/>
       <c r="Q45" s="27"/>
     </row>
-    <row r="46" spans="1:17" customFormat="1" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" customFormat="1" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
-      <c r="B46" s="56"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="56"/>
-      <c r="F46" s="56"/>
-      <c r="G46" s="56"/>
-      <c r="H46" s="56"/>
-      <c r="I46" s="56"/>
-      <c r="J46" s="56"/>
-      <c r="K46" s="56"/>
-      <c r="L46" s="56"/>
-      <c r="M46" s="56"/>
-      <c r="N46" s="56"/>
-      <c r="O46" s="56"/>
-      <c r="P46" s="56"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="42"/>
+      <c r="L46" s="42"/>
+      <c r="M46" s="42"/>
+      <c r="N46" s="42"/>
+      <c r="O46" s="42"/>
+      <c r="P46" s="42"/>
       <c r="Q46" s="27"/>
     </row>
-    <row r="47" spans="1:17" customFormat="1" ht="1.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -3610,25 +3610,25 @@
       <c r="Q47" s="27"/>
     </row>
     <row r="48" spans="1:17" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="57" t="s">
+      <c r="A48" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="58"/>
-      <c r="C48" s="58"/>
-      <c r="D48" s="58"/>
-      <c r="E48" s="58"/>
-      <c r="F48" s="58"/>
-      <c r="G48" s="58"/>
-      <c r="H48" s="58"/>
-      <c r="I48" s="58"/>
-      <c r="J48" s="58"/>
-      <c r="K48" s="58"/>
-      <c r="L48" s="58"/>
-      <c r="M48" s="58"/>
-      <c r="N48" s="58"/>
-      <c r="O48" s="58"/>
-      <c r="P48" s="58"/>
-      <c r="Q48" s="59"/>
+      <c r="B48" s="78"/>
+      <c r="C48" s="78"/>
+      <c r="D48" s="78"/>
+      <c r="E48" s="78"/>
+      <c r="F48" s="78"/>
+      <c r="G48" s="78"/>
+      <c r="H48" s="78"/>
+      <c r="I48" s="78"/>
+      <c r="J48" s="78"/>
+      <c r="K48" s="78"/>
+      <c r="L48" s="78"/>
+      <c r="M48" s="78"/>
+      <c r="N48" s="78"/>
+      <c r="O48" s="78"/>
+      <c r="P48" s="78"/>
+      <c r="Q48" s="79"/>
     </row>
     <row r="49" spans="1:17" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
@@ -3654,14 +3654,14 @@
       <c r="Q49" s="1"/>
     </row>
     <row r="50" spans="1:17" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="87" t="s">
+      <c r="A50" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="B50" s="87"/>
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="F50" s="87"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
       <c r="G50" s="26"/>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
@@ -3759,6 +3759,68 @@
     </row>
   </sheetData>
   <mergeCells count="78">
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="H39:M39"/>
+    <mergeCell ref="H40:M40"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A40:G40"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="A42:Q42"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A43:Q44"/>
+    <mergeCell ref="A48:Q48"/>
+    <mergeCell ref="A8:Q8"/>
+    <mergeCell ref="N35:Q35"/>
+    <mergeCell ref="N36:Q36"/>
+    <mergeCell ref="N37:Q37"/>
+    <mergeCell ref="N38:Q38"/>
+    <mergeCell ref="N39:Q39"/>
+    <mergeCell ref="N40:Q40"/>
+    <mergeCell ref="N41:Q41"/>
+    <mergeCell ref="A9:Q9"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="A6:Q6"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="H14:P14"/>
+    <mergeCell ref="H13:Q13"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J27:L27"/>
     <mergeCell ref="B45:P46"/>
     <mergeCell ref="A50:F50"/>
     <mergeCell ref="M25:N25"/>
@@ -3775,68 +3837,6 @@
     <mergeCell ref="J33:Q33"/>
     <mergeCell ref="A27:E27"/>
     <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="H14:P14"/>
-    <mergeCell ref="H13:Q13"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="A4:Q4"/>
-    <mergeCell ref="A6:Q6"/>
-    <mergeCell ref="A43:Q44"/>
-    <mergeCell ref="A48:Q48"/>
-    <mergeCell ref="A8:Q8"/>
-    <mergeCell ref="N35:Q35"/>
-    <mergeCell ref="N36:Q36"/>
-    <mergeCell ref="N37:Q37"/>
-    <mergeCell ref="N38:Q38"/>
-    <mergeCell ref="N39:Q39"/>
-    <mergeCell ref="N40:Q40"/>
-    <mergeCell ref="N41:Q41"/>
-    <mergeCell ref="A9:Q9"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="A42:Q42"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="H39:M39"/>
-    <mergeCell ref="H40:M40"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="A39:G39"/>
-    <mergeCell ref="A40:G40"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -3854,6 +3854,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="2b0bd853-7088-4c19-b00d-053be169d2a6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100D7DFD60F90050F4AA31EBB1C16268563" ma:contentTypeVersion="15" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="868252f0103d6565da4664e5ee304bd1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2b0bd853-7088-4c19-b00d-053be169d2a6" xmlns:ns4="e7c88e36-fb26-4641-87e6-b4d6b980d920" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="80f3d7541ba63afb8833245980b4e488" ns3:_="" ns4:_="">
     <xsd:import namespace="2b0bd853-7088-4c19-b00d-053be169d2a6"/>
@@ -4086,14 +4094,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="2b0bd853-7088-4c19-b00d-053be169d2a6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E7A361B-8181-4793-B122-3274A90D1579}">
   <ds:schemaRefs>
@@ -4103,6 +4103,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E85C31F2-6F54-4105-8496-2F3931A2EC0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="2b0bd853-7088-4c19-b00d-053be169d2a6"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="e7c88e36-fb26-4641-87e6-b4d6b980d920"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C042E4F-4874-46FE-A868-E4642CBEF34F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4119,21 +4136,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E85C31F2-6F54-4105-8496-2F3931A2EC0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="2b0bd853-7088-4c19-b00d-053be169d2a6"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="e7c88e36-fb26-4641-87e6-b4d6b980d920"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>